--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.12902778450032</v>
+        <v>8.200698666666668</v>
       </c>
       <c r="H2">
-        <v>8.12902778450032</v>
+        <v>24.602096</v>
       </c>
       <c r="I2">
-        <v>0.342746947610842</v>
+        <v>0.3423472217473603</v>
       </c>
       <c r="J2">
-        <v>0.342746947610842</v>
+        <v>0.3423472217473603</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.8999908094465</v>
+        <v>78.37080400000001</v>
       </c>
       <c r="N2">
-        <v>40.8999908094465</v>
+        <v>235.112412</v>
       </c>
       <c r="O2">
-        <v>0.8692840207555227</v>
+        <v>0.9256182775132763</v>
       </c>
       <c r="P2">
-        <v>0.8692840207555227</v>
+        <v>0.9256182775132761</v>
       </c>
       <c r="Q2">
-        <v>332.4771616757983</v>
+        <v>642.6953478683948</v>
       </c>
       <c r="R2">
-        <v>332.4771616757983</v>
+        <v>5784.258130815553</v>
       </c>
       <c r="S2">
-        <v>0.2979444447208353</v>
+        <v>0.3168828457052473</v>
       </c>
       <c r="T2">
-        <v>0.2979444447208353</v>
+        <v>0.3168828457052472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.12902778450032</v>
+        <v>8.200698666666668</v>
       </c>
       <c r="H3">
-        <v>8.12902778450032</v>
+        <v>24.602096</v>
       </c>
       <c r="I3">
-        <v>0.342746947610842</v>
+        <v>0.3423472217473603</v>
       </c>
       <c r="J3">
-        <v>0.342746947610842</v>
+        <v>0.3423472217473603</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.26964241043346</v>
+        <v>2.309992333333333</v>
       </c>
       <c r="N3">
-        <v>2.26964241043346</v>
+        <v>6.929977</v>
       </c>
       <c r="O3">
-        <v>0.04823873651734824</v>
+        <v>0.02728275091638557</v>
       </c>
       <c r="P3">
-        <v>0.04823873651734824</v>
+        <v>0.02728275091638557</v>
       </c>
       <c r="Q3">
-        <v>18.44998621529387</v>
+        <v>18.94355104797689</v>
       </c>
       <c r="R3">
-        <v>18.44998621529387</v>
+        <v>170.491959431792</v>
       </c>
       <c r="S3">
-        <v>0.01653367969792477</v>
+        <v>0.009340173977849846</v>
       </c>
       <c r="T3">
-        <v>0.01653367969792477</v>
+        <v>0.009340173977849848</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.12902778450032</v>
+        <v>8.200698666666668</v>
       </c>
       <c r="H4">
-        <v>8.12902778450032</v>
+        <v>24.602096</v>
       </c>
       <c r="I4">
-        <v>0.342746947610842</v>
+        <v>0.3423472217473603</v>
       </c>
       <c r="J4">
-        <v>0.342746947610842</v>
+        <v>0.3423472217473603</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.88057112403401</v>
+        <v>3.987804</v>
       </c>
       <c r="N4">
-        <v>3.88057112403401</v>
+        <v>11.963412</v>
       </c>
       <c r="O4">
-        <v>0.08247724272712895</v>
+        <v>0.04709897157033827</v>
       </c>
       <c r="P4">
-        <v>0.08247724272712895</v>
+        <v>0.04709897157033827</v>
       </c>
       <c r="Q4">
-        <v>31.5452704870021</v>
+        <v>32.70277894572801</v>
       </c>
       <c r="R4">
-        <v>31.5452704870021</v>
+        <v>294.325010511552</v>
       </c>
       <c r="S4">
-        <v>0.02826882319208197</v>
+        <v>0.01612420206426321</v>
       </c>
       <c r="T4">
-        <v>0.02826882319208197</v>
+        <v>0.01612420206426321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5926005382194</v>
+        <v>10.62814333333333</v>
       </c>
       <c r="H5">
-        <v>10.5926005382194</v>
+        <v>31.88443</v>
       </c>
       <c r="I5">
-        <v>0.4466193987746136</v>
+        <v>0.4436835799477486</v>
       </c>
       <c r="J5">
-        <v>0.4466193987746136</v>
+        <v>0.4436835799477487</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.8999908094465</v>
+        <v>78.37080400000001</v>
       </c>
       <c r="N5">
-        <v>40.8999908094465</v>
+        <v>235.112412</v>
       </c>
       <c r="O5">
-        <v>0.8692840207555227</v>
+        <v>0.9256182775132763</v>
       </c>
       <c r="P5">
-        <v>0.8692840207555227</v>
+        <v>0.9256182775132761</v>
       </c>
       <c r="Q5">
-        <v>433.2372646613115</v>
+        <v>832.9361380605734</v>
       </c>
       <c r="R5">
-        <v>433.2372646613115</v>
+        <v>7496.42524254516</v>
       </c>
       <c r="S5">
-        <v>0.3882391067142102</v>
+        <v>0.410681631032159</v>
       </c>
       <c r="T5">
-        <v>0.3882391067142102</v>
+        <v>0.410681631032159</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.5926005382194</v>
+        <v>10.62814333333333</v>
       </c>
       <c r="H6">
-        <v>10.5926005382194</v>
+        <v>31.88443</v>
       </c>
       <c r="I6">
-        <v>0.4466193987746136</v>
+        <v>0.4436835799477486</v>
       </c>
       <c r="J6">
-        <v>0.4466193987746136</v>
+        <v>0.4436835799477487</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.26964241043346</v>
+        <v>2.309992333333333</v>
       </c>
       <c r="N6">
-        <v>2.26964241043346</v>
+        <v>6.929977</v>
       </c>
       <c r="O6">
-        <v>0.04823873651734824</v>
+        <v>0.02728275091638557</v>
       </c>
       <c r="P6">
-        <v>0.04823873651734824</v>
+        <v>0.02728275091638557</v>
       </c>
       <c r="Q6">
-        <v>24.04141541832304</v>
+        <v>24.55092961756778</v>
       </c>
       <c r="R6">
-        <v>24.04141541832304</v>
+        <v>220.95836655811</v>
       </c>
       <c r="S6">
-        <v>0.02154435550102507</v>
+        <v>0.01210490859740467</v>
       </c>
       <c r="T6">
-        <v>0.02154435550102507</v>
+        <v>0.01210490859740467</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.5926005382194</v>
+        <v>10.62814333333333</v>
       </c>
       <c r="H7">
-        <v>10.5926005382194</v>
+        <v>31.88443</v>
       </c>
       <c r="I7">
-        <v>0.4466193987746136</v>
+        <v>0.4436835799477486</v>
       </c>
       <c r="J7">
-        <v>0.4466193987746136</v>
+        <v>0.4436835799477487</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.88057112403401</v>
+        <v>3.987804</v>
       </c>
       <c r="N7">
-        <v>3.88057112403401</v>
+        <v>11.963412</v>
       </c>
       <c r="O7">
-        <v>0.08247724272712895</v>
+        <v>0.04709897157033827</v>
       </c>
       <c r="P7">
-        <v>0.08247724272712895</v>
+        <v>0.04709897157033827</v>
       </c>
       <c r="Q7">
-        <v>41.10533977704132</v>
+        <v>42.38295249724001</v>
       </c>
       <c r="R7">
-        <v>41.10533977704132</v>
+        <v>381.44657247516</v>
       </c>
       <c r="S7">
-        <v>0.0368359365593782</v>
+        <v>0.02089704031818492</v>
       </c>
       <c r="T7">
-        <v>0.0368359365593782</v>
+        <v>0.02089704031818492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.99565885128625</v>
+        <v>5.125489</v>
       </c>
       <c r="H8">
-        <v>4.99565885128625</v>
+        <v>15.376467</v>
       </c>
       <c r="I8">
-        <v>0.2106336536145444</v>
+        <v>0.2139691983048911</v>
       </c>
       <c r="J8">
-        <v>0.2106336536145444</v>
+        <v>0.2139691983048911</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.8999908094465</v>
+        <v>78.37080400000001</v>
       </c>
       <c r="N8">
-        <v>40.8999908094465</v>
+        <v>235.112412</v>
       </c>
       <c r="O8">
-        <v>0.8692840207555227</v>
+        <v>0.9256182775132763</v>
       </c>
       <c r="P8">
-        <v>0.8692840207555227</v>
+        <v>0.9256182775132761</v>
       </c>
       <c r="Q8">
-        <v>204.3224011047377</v>
+        <v>401.688693823156</v>
       </c>
       <c r="R8">
-        <v>204.3224011047377</v>
+        <v>3615.198244408404</v>
       </c>
       <c r="S8">
-        <v>0.1831004693204772</v>
+        <v>0.1980538007758699</v>
       </c>
       <c r="T8">
-        <v>0.1831004693204772</v>
+        <v>0.1980538007758699</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.99565885128625</v>
+        <v>5.125489</v>
       </c>
       <c r="H9">
-        <v>4.99565885128625</v>
+        <v>15.376467</v>
       </c>
       <c r="I9">
-        <v>0.2106336536145444</v>
+        <v>0.2139691983048911</v>
       </c>
       <c r="J9">
-        <v>0.2106336536145444</v>
+        <v>0.2139691983048911</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.26964241043346</v>
+        <v>2.309992333333333</v>
       </c>
       <c r="N9">
-        <v>2.26964241043346</v>
+        <v>6.929977</v>
       </c>
       <c r="O9">
-        <v>0.04823873651734824</v>
+        <v>0.02728275091638557</v>
       </c>
       <c r="P9">
-        <v>0.04823873651734824</v>
+        <v>0.02728275091638557</v>
       </c>
       <c r="Q9">
-        <v>11.33835919693657</v>
+        <v>11.83984029458433</v>
       </c>
       <c r="R9">
-        <v>11.33835919693657</v>
+        <v>106.558562651259</v>
       </c>
       <c r="S9">
-        <v>0.0101607013183984</v>
+        <v>0.005837668341131051</v>
       </c>
       <c r="T9">
-        <v>0.0101607013183984</v>
+        <v>0.005837668341131052</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.99565885128625</v>
+        <v>5.125489</v>
       </c>
       <c r="H10">
-        <v>4.99565885128625</v>
+        <v>15.376467</v>
       </c>
       <c r="I10">
-        <v>0.2106336536145444</v>
+        <v>0.2139691983048911</v>
       </c>
       <c r="J10">
-        <v>0.2106336536145444</v>
+        <v>0.2139691983048911</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.88057112403401</v>
+        <v>3.987804</v>
       </c>
       <c r="N10">
-        <v>3.88057112403401</v>
+        <v>11.963412</v>
       </c>
       <c r="O10">
-        <v>0.08247724272712895</v>
+        <v>0.04709897157033827</v>
       </c>
       <c r="P10">
-        <v>0.08247724272712895</v>
+        <v>0.04709897157033827</v>
       </c>
       <c r="Q10">
-        <v>19.38600948382634</v>
+        <v>20.439445536156</v>
       </c>
       <c r="R10">
-        <v>19.38600948382634</v>
+        <v>183.955009825404</v>
       </c>
       <c r="S10">
-        <v>0.01737248297566878</v>
+        <v>0.01007772918789014</v>
       </c>
       <c r="T10">
-        <v>0.01737248297566878</v>
+        <v>0.01007772918789014</v>
       </c>
     </row>
   </sheetData>
